--- a/static/main_myweb3.xlsx
+++ b/static/main_myweb3.xlsx
@@ -478,105 +478,105 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/video-editor-contractor/</t>
+          <t>https://myweb3jobs.com/job/senior-product-marketing-manager/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/senior-network-engineer/</t>
+          <t>https://myweb3jobs.com/job/senior-solidity-engineer-6/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/senior-full-stack-engineer-12/</t>
+          <t>https://myweb3jobs.com/job/associate-pr-manager/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/senior-business-developer-defi-asset-management/</t>
+          <t>https://myweb3jobs.com/job/lead-front-end-engineer/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/senior-software-engineer-frontend-3/</t>
+          <t>https://myweb3jobs.com/job/content-growth-marketer/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/junior-data-engineer/</t>
+          <t>https://myweb3jobs.com/job/junior-compliance-analyst/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/africa-senior-marketing-manager/</t>
+          <t>https://myweb3jobs.com/job/senior-backend-engineer-20/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/senior-content-manager-de-dach/</t>
+          <t>https://myweb3jobs.com/job/full-stack-software-engineer-mid-level/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/community-manager-20/</t>
+          <t>https://myweb3jobs.com/job/user-researcher/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/junior-software-engineer-team-connectivity/</t>
+          <t>https://myweb3jobs.com/job/senior-software-engineer-backend-4/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/senior-applied-cryptographer/</t>
+          <t>https://myweb3jobs.com/job/community-manager-associate/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/software-engineer-go-chat-sdk/</t>
+          <t>https://myweb3jobs.com/job/product-marketer-2/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/senior-security-researcher/</t>
+          <t>https://myweb3jobs.com/job/senior-backend-engineer-trading-desk-engineering/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/senior-product-manager-ui-uxm-w-d/</t>
+          <t>https://myweb3jobs.com/job/video-editor-contractor/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://myweb3jobs.com/job/junior-3d-character-game-artist/</t>
+          <t>https://myweb3jobs.com/job/senior-network-engineer/</t>
         </is>
       </c>
     </row>
